--- a/va_facility_data_2025-02-20/Pike County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pike%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pike County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Pike%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcb573a7c5b5c46e1bb9c9b7b52f38308"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R387e5310f4d24a789059575110a82056"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9e7e919c2e4042cca31be51edb5582f0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3aa232de6d774600b5fc6a6c01d392a0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R573207e7e18841948ae463fec9239848"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf44caad47a7446de9771d0f48ce3b937"/>
   </x:sheets>
 </x:workbook>
 </file>
